--- a/Projects/PILMAPRES/main/output/output.xlsx
+++ b/Projects/PILMAPRES/main/output/output.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansj\OneDrive\Documents\Student Affairs\Projects\PILMAPRES\main\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8218DF1-63F7-4E73-88B4-836F849A0FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$159</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1036,8 +1027,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1100,21 +1091,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1152,7 +1135,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1186,7 +1169,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1221,10 +1203,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1397,22 +1378,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1426,203 +1399,203 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>319</v>
       </c>
       <c r="D2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
         <v>319</v>
       </c>
       <c r="D3">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
         <v>319</v>
       </c>
       <c r="D4">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
         <v>319</v>
       </c>
       <c r="D5">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
         <v>319</v>
       </c>
       <c r="D6">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>319</v>
       </c>
       <c r="D7">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
         <v>319</v>
       </c>
       <c r="D8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
         <v>319</v>
       </c>
       <c r="D9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
         <v>319</v>
       </c>
       <c r="D10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
         <v>319</v>
       </c>
       <c r="D11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
         <v>320</v>
       </c>
       <c r="D12">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
         <v>320</v>
       </c>
       <c r="D13">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
         <v>320</v>
       </c>
       <c r="D14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
         <v>320</v>
       </c>
       <c r="D15">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1636,40 +1609,40 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
         <v>320</v>
       </c>
       <c r="D17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
         <v>320</v>
       </c>
       <c r="D18">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
         <v>320</v>
@@ -1678,91 +1651,91 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
         <v>320</v>
       </c>
       <c r="D20">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
         <v>320</v>
       </c>
       <c r="D21">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s">
         <v>321</v>
       </c>
       <c r="D22">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
         <v>321</v>
       </c>
       <c r="D23">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
         <v>321</v>
       </c>
       <c r="D24">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s">
         <v>321</v>
       </c>
       <c r="D25">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1776,63 +1749,63 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s">
         <v>321</v>
       </c>
       <c r="D27">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
         <v>321</v>
       </c>
       <c r="D28">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s">
         <v>321</v>
       </c>
       <c r="D29">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s">
         <v>321</v>
       </c>
       <c r="D30">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1846,7 +1819,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1860,7 +1833,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1874,7 +1847,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1888,21 +1861,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C35" t="s">
         <v>322</v>
       </c>
       <c r="D35">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1916,7 +1889,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1930,7 +1903,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1944,12 +1917,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C39" t="s">
         <v>322</v>
@@ -1958,12 +1931,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s">
         <v>322</v>
@@ -1972,82 +1945,82 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C41" t="s">
         <v>322</v>
       </c>
       <c r="D41">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C42" t="s">
         <v>323</v>
       </c>
       <c r="D42">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C43" t="s">
         <v>323</v>
       </c>
       <c r="D43">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C44" t="s">
         <v>323</v>
       </c>
       <c r="D44">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C45" t="s">
         <v>323</v>
       </c>
       <c r="D45">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C46" t="s">
         <v>323</v>
@@ -2056,12 +2029,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C47" t="s">
         <v>323</v>
@@ -2070,180 +2043,180 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C48" t="s">
         <v>323</v>
       </c>
       <c r="D48">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C49" t="s">
         <v>323</v>
       </c>
       <c r="D49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C50" t="s">
         <v>323</v>
       </c>
       <c r="D50">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C51" t="s">
         <v>323</v>
       </c>
       <c r="D51">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s">
         <v>324</v>
       </c>
       <c r="D52">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" t="s">
         <v>324</v>
       </c>
       <c r="D53">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C54" t="s">
         <v>324</v>
       </c>
       <c r="D54">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C55" t="s">
         <v>324</v>
       </c>
       <c r="D55">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C56" t="s">
         <v>324</v>
       </c>
       <c r="D56">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C57" t="s">
         <v>324</v>
       </c>
       <c r="D57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C58" t="s">
         <v>324</v>
       </c>
       <c r="D58">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C59" t="s">
         <v>324</v>
       </c>
       <c r="D59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C60" t="s">
         <v>324</v>
@@ -2252,21 +2225,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C61" t="s">
         <v>324</v>
       </c>
       <c r="D61">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -2280,7 +2253,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2294,7 +2267,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2308,7 +2281,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2322,7 +2295,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -2336,7 +2309,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2350,7 +2323,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2364,7 +2337,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -2378,7 +2351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -2392,7 +2365,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2406,96 +2379,96 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C72" t="s">
         <v>326</v>
       </c>
       <c r="D72">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C73" t="s">
         <v>326</v>
       </c>
       <c r="D73">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C74" t="s">
         <v>326</v>
       </c>
       <c r="D74">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C75" t="s">
         <v>326</v>
       </c>
       <c r="D75">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C76" t="s">
         <v>326</v>
       </c>
       <c r="D76">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C77" t="s">
         <v>326</v>
       </c>
       <c r="D77">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C78" t="s">
         <v>326</v>
@@ -2504,91 +2477,91 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C79" t="s">
         <v>326</v>
       </c>
       <c r="D79">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C80" t="s">
         <v>326</v>
       </c>
       <c r="D80">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C81" t="s">
         <v>326</v>
       </c>
       <c r="D81">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C82" t="s">
         <v>327</v>
       </c>
       <c r="D82">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C83" t="s">
         <v>327</v>
       </c>
       <c r="D83">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C84" t="s">
         <v>327</v>
       </c>
       <c r="D84">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -2602,82 +2575,82 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C86" t="s">
         <v>327</v>
       </c>
       <c r="D86">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C87" t="s">
         <v>327</v>
       </c>
       <c r="D87">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C88" t="s">
         <v>327</v>
       </c>
       <c r="D88">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C89" t="s">
         <v>328</v>
       </c>
       <c r="D89">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C90" t="s">
         <v>328</v>
       </c>
       <c r="D90">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C91" t="s">
         <v>328</v>
@@ -2686,12 +2659,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C92" t="s">
         <v>328</v>
@@ -2700,7 +2673,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -2714,12 +2687,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C94" t="s">
         <v>328</v>
@@ -2728,12 +2701,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C95" t="s">
         <v>328</v>
@@ -2742,12 +2715,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C96" t="s">
         <v>328</v>
@@ -2756,35 +2729,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C97" t="s">
         <v>328</v>
       </c>
       <c r="D97">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C98" t="s">
         <v>328</v>
       </c>
       <c r="D98">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -2798,7 +2771,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -2812,7 +2785,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -2826,7 +2799,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -2840,7 +2813,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -2854,7 +2827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -2868,7 +2841,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -2882,7 +2855,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -2896,7 +2869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -2910,7 +2883,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -2924,7 +2897,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -2938,96 +2911,96 @@
         <v>165</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C110" t="s">
         <v>331</v>
       </c>
       <c r="D110">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C111" t="s">
         <v>331</v>
       </c>
       <c r="D111">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C112" t="s">
         <v>331</v>
       </c>
       <c r="D112">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C113" t="s">
         <v>331</v>
       </c>
       <c r="D113">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C114" t="s">
         <v>331</v>
       </c>
       <c r="D114">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C115" t="s">
         <v>331</v>
       </c>
       <c r="D115">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C116" t="s">
         <v>331</v>
@@ -3036,12 +3009,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C117" t="s">
         <v>331</v>
@@ -3050,12 +3023,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C118" t="s">
         <v>331</v>
@@ -3064,161 +3037,161 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C119" t="s">
         <v>331</v>
       </c>
       <c r="D119">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C120" t="s">
         <v>332</v>
       </c>
       <c r="D120">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C121" t="s">
         <v>332</v>
       </c>
       <c r="D121">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C122" t="s">
         <v>332</v>
       </c>
       <c r="D122">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C123" t="s">
         <v>332</v>
       </c>
       <c r="D123">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C124" t="s">
         <v>332</v>
       </c>
       <c r="D124">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C125" t="s">
         <v>332</v>
       </c>
       <c r="D125">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C126" t="s">
         <v>332</v>
       </c>
       <c r="D126">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C127" t="s">
         <v>332</v>
       </c>
       <c r="D127">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C128" t="s">
         <v>332</v>
       </c>
       <c r="D128">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C129" t="s">
         <v>332</v>
       </c>
       <c r="D129">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -3232,7 +3205,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -3246,35 +3219,35 @@
         <v>65</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C132" t="s">
         <v>333</v>
       </c>
       <c r="D132">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C133" t="s">
         <v>333</v>
       </c>
       <c r="D133">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -3288,7 +3261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -3302,35 +3275,35 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C136" t="s">
         <v>333</v>
       </c>
       <c r="D136">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C137" t="s">
         <v>333</v>
       </c>
       <c r="D137">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -3344,7 +3317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -3358,49 +3331,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C140" t="s">
         <v>334</v>
       </c>
       <c r="D140">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C141" t="s">
         <v>334</v>
       </c>
       <c r="D141">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C142" t="s">
         <v>334</v>
       </c>
       <c r="D142">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -3414,63 +3387,63 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C144" t="s">
         <v>334</v>
       </c>
       <c r="D144">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C145" t="s">
         <v>334</v>
       </c>
       <c r="D145">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C146" t="s">
         <v>334</v>
       </c>
       <c r="D146">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C147" t="s">
         <v>334</v>
       </c>
       <c r="D147">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -3484,7 +3457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -3498,49 +3471,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C150" t="s">
         <v>335</v>
       </c>
       <c r="D150">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C151" t="s">
         <v>335</v>
       </c>
       <c r="D151">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C152" t="s">
         <v>335</v>
       </c>
       <c r="D152">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -3554,7 +3527,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -3568,7 +3541,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -3582,7 +3555,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -3596,7 +3569,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -3610,21 +3583,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C158" t="s">
         <v>335</v>
       </c>
       <c r="D158">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -3639,11 +3612,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D159" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D159">
-      <sortCondition ref="C1:C159"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Projects/PILMAPRES/main/output/output.xlsx
+++ b/Projects/PILMAPRES/main/output/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="298">
   <si>
     <t>NIS</t>
   </si>
@@ -40,52 +40,76 @@
     <t>0106042110014</t>
   </si>
   <si>
+    <t>0106042110045</t>
+  </si>
+  <si>
     <t>0106042110051</t>
   </si>
   <si>
-    <t>0106042110045</t>
-  </si>
-  <si>
-    <t>0106042110024</t>
+    <t>0106042210036</t>
+  </si>
+  <si>
+    <t>0106042110007</t>
   </si>
   <si>
     <t>0106042210008</t>
   </si>
   <si>
-    <t>0106042110007</t>
-  </si>
-  <si>
     <t>0106042210012</t>
   </si>
   <si>
+    <t>0206032210018</t>
+  </si>
+  <si>
+    <t>0206032110014</t>
+  </si>
+  <si>
+    <t>0206032110016</t>
+  </si>
+  <si>
     <t>0206032110039</t>
   </si>
   <si>
+    <t>0206032110015</t>
+  </si>
+  <si>
     <t>0206032110006</t>
   </si>
   <si>
-    <t>0206032210003</t>
-  </si>
-  <si>
-    <t>0206032110016</t>
-  </si>
-  <si>
-    <t>0206032210005</t>
+    <t>0206032110044</t>
   </si>
   <si>
     <t>0206032110012</t>
   </si>
   <si>
-    <t>0206032110014</t>
-  </si>
-  <si>
-    <t>0206032110005</t>
-  </si>
-  <si>
     <t>0206032110007</t>
   </si>
   <si>
-    <t>0206032210018</t>
+    <t>0206032110017</t>
+  </si>
+  <si>
+    <t>0506012110062</t>
+  </si>
+  <si>
+    <t>0506012110004</t>
+  </si>
+  <si>
+    <t>0506012110077</t>
+  </si>
+  <si>
+    <t>0506012110007</t>
+  </si>
+  <si>
+    <t>0506012110038</t>
+  </si>
+  <si>
+    <t>0506012110019</t>
+  </si>
+  <si>
+    <t>0506012110043</t>
+  </si>
+  <si>
+    <t>0506012110056</t>
   </si>
   <si>
     <t>0506012110015</t>
@@ -94,228 +118,153 @@
     <t>0506012110008</t>
   </si>
   <si>
-    <t>0506012110056</t>
-  </si>
-  <si>
-    <t>0506012110007</t>
-  </si>
-  <si>
-    <t>0506012110062</t>
-  </si>
-  <si>
-    <t>0506012110004</t>
-  </si>
-  <si>
-    <t>0506012110038</t>
-  </si>
-  <si>
-    <t>0506012110077</t>
-  </si>
-  <si>
-    <t>0506012110019</t>
-  </si>
-  <si>
-    <t>0506012110043</t>
+    <t>0206062110003</t>
+  </si>
+  <si>
+    <t>0206062110023</t>
+  </si>
+  <si>
+    <t>0206062110005</t>
+  </si>
+  <si>
+    <t>0206062110016</t>
+  </si>
+  <si>
+    <t>0206062110020</t>
+  </si>
+  <si>
+    <t>0206062210038</t>
+  </si>
+  <si>
+    <t>0206062110042</t>
+  </si>
+  <si>
+    <t>0206062210032</t>
+  </si>
+  <si>
+    <t>0206062110032</t>
   </si>
   <si>
     <t>0206062110002</t>
   </si>
   <si>
-    <t>0206062110003</t>
-  </si>
-  <si>
-    <t>0206062110005</t>
-  </si>
-  <si>
-    <t>0206062110043</t>
-  </si>
-  <si>
-    <t>0206062110020</t>
-  </si>
-  <si>
-    <t>0206062110023</t>
-  </si>
-  <si>
-    <t>0206062210032</t>
-  </si>
-  <si>
-    <t>0206062210003</t>
-  </si>
-  <si>
-    <t>0206062210038</t>
-  </si>
-  <si>
-    <t>0206062110016</t>
+    <t>0406042110016</t>
+  </si>
+  <si>
+    <t>0406042110002</t>
+  </si>
+  <si>
+    <t>0406042210011</t>
+  </si>
+  <si>
+    <t>0406042210006</t>
+  </si>
+  <si>
+    <t>0406042110011</t>
   </si>
   <si>
     <t>0406042110008</t>
   </si>
   <si>
-    <t>0406042110002</t>
-  </si>
-  <si>
-    <t>0406042310010</t>
+    <t>0406042310001</t>
+  </si>
+  <si>
+    <t>0406042110010</t>
+  </si>
+  <si>
+    <t>0406042110017</t>
   </si>
   <si>
     <t>0406042110007</t>
   </si>
   <si>
-    <t>0406042210011</t>
-  </si>
-  <si>
-    <t>0406042210006</t>
-  </si>
-  <si>
-    <t>0406042110010</t>
-  </si>
-  <si>
-    <t>0406042310001</t>
-  </si>
-  <si>
-    <t>0406042110017</t>
-  </si>
-  <si>
-    <t>0406042110016</t>
+    <t>0706012110013</t>
+  </si>
+  <si>
+    <t>0706012110019</t>
+  </si>
+  <si>
+    <t>0706012110021</t>
+  </si>
+  <si>
+    <t>0706012110026</t>
+  </si>
+  <si>
+    <t>0706012110033</t>
+  </si>
+  <si>
+    <t>0706012110018</t>
   </si>
   <si>
     <t>0706012110041</t>
   </si>
   <si>
-    <t>0706012110019</t>
+    <t>0706012110020</t>
   </si>
   <si>
     <t>0706012110032</t>
   </si>
   <si>
-    <t>0706012110013</t>
-  </si>
-  <si>
-    <t>0706012110020</t>
-  </si>
-  <si>
-    <t>0706012110018</t>
-  </si>
-  <si>
     <t>0706012210003</t>
   </si>
   <si>
-    <t>0706012110021</t>
-  </si>
-  <si>
-    <t>0706012110034</t>
-  </si>
-  <si>
-    <t>0706012110036</t>
+    <t>0706022110019</t>
+  </si>
+  <si>
+    <t>0706022110012</t>
+  </si>
+  <si>
+    <t>0706022110002</t>
+  </si>
+  <si>
+    <t>0706022110042</t>
   </si>
   <si>
     <t>0706022210004</t>
   </si>
   <si>
+    <t>0706022110005</t>
+  </si>
+  <si>
+    <t>0706022110027</t>
+  </si>
+  <si>
     <t>0706022210006</t>
   </si>
   <si>
-    <t>0706022110027</t>
-  </si>
-  <si>
-    <t>0706022110005</t>
-  </si>
-  <si>
-    <t>0706022110002</t>
-  </si>
-  <si>
-    <t>0706022110019</t>
-  </si>
-  <si>
-    <t>0706022110012</t>
-  </si>
-  <si>
-    <t>0706022110042</t>
-  </si>
-  <si>
-    <t>0706022210039</t>
-  </si>
-  <si>
     <t>0706022210051</t>
   </si>
   <si>
-    <t>0108012310018</t>
-  </si>
-  <si>
-    <t>0108012120098</t>
-  </si>
-  <si>
-    <t>0108012110047</t>
-  </si>
-  <si>
-    <t>0108012120065</t>
-  </si>
-  <si>
-    <t>0108012120083</t>
-  </si>
-  <si>
-    <t>0108012320091</t>
-  </si>
-  <si>
-    <t>0108012110023</t>
-  </si>
-  <si>
-    <t>0108012120061</t>
-  </si>
-  <si>
-    <t>0108012110041</t>
-  </si>
-  <si>
-    <t>0108012220101</t>
-  </si>
-  <si>
-    <t>0108912120018</t>
-  </si>
-  <si>
-    <t>0108912320028</t>
-  </si>
-  <si>
-    <t>0108912110003</t>
-  </si>
-  <si>
-    <t>0108912120014</t>
-  </si>
-  <si>
-    <t>0108912310008</t>
-  </si>
-  <si>
-    <t>0108912110008,0108012120107</t>
-  </si>
-  <si>
-    <t>0108912220025</t>
-  </si>
-  <si>
-    <t>0106022110055</t>
+    <t>0706022210032</t>
+  </si>
+  <si>
+    <t>0106022210002</t>
+  </si>
+  <si>
+    <t>0106022210010</t>
+  </si>
+  <si>
+    <t>0106022110047</t>
+  </si>
+  <si>
+    <t>0106022110057</t>
+  </si>
+  <si>
+    <t>0106022210030</t>
+  </si>
+  <si>
+    <t>0106022110024</t>
+  </si>
+  <si>
+    <t>0106022310011</t>
+  </si>
+  <si>
+    <t>0106022110053</t>
   </si>
   <si>
     <t>0106022210003</t>
   </si>
   <si>
-    <t>0106022110024</t>
-  </si>
-  <si>
-    <t>0106022210030</t>
-  </si>
-  <si>
-    <t>0106022310011</t>
-  </si>
-  <si>
-    <t>0106022110057</t>
-  </si>
-  <si>
-    <t>0106022110047</t>
-  </si>
-  <si>
-    <t>0106022110053</t>
-  </si>
-  <si>
-    <t>0106022210010</t>
-  </si>
-  <si>
     <t>0106022110036</t>
   </si>
   <si>
@@ -325,129 +274,129 @@
     <t>0106012110276</t>
   </si>
   <si>
+    <t>0106012110151</t>
+  </si>
+  <si>
     <t>0106012210008</t>
   </si>
   <si>
+    <t>0106012110070</t>
+  </si>
+  <si>
+    <t>0106012110063</t>
+  </si>
+  <si>
     <t>0106012210185</t>
   </si>
   <si>
-    <t>0106012110151</t>
-  </si>
-  <si>
-    <t>0106012110070</t>
-  </si>
-  <si>
     <t>0106012210420</t>
   </si>
   <si>
-    <t>0106012110409</t>
-  </si>
-  <si>
-    <t>0106012210034</t>
-  </si>
-  <si>
-    <t>0106012210022</t>
-  </si>
-  <si>
-    <t>0109012220012</t>
-  </si>
-  <si>
-    <t>0606012110014</t>
+    <t>0106012110258</t>
+  </si>
+  <si>
+    <t>0106012110130</t>
+  </si>
+  <si>
+    <t>0606012210001</t>
+  </si>
+  <si>
+    <t>0606012310102</t>
+  </si>
+  <si>
+    <t>0606012210056</t>
   </si>
   <si>
     <t>0606012210041</t>
   </si>
   <si>
-    <t>0606012210056</t>
-  </si>
-  <si>
     <t>0606012210022</t>
   </si>
   <si>
-    <t>0606012210033</t>
-  </si>
-  <si>
-    <t>0606012210001</t>
+    <t>0606012110051</t>
+  </si>
+  <si>
+    <t>0606012310025</t>
+  </si>
+  <si>
+    <t>0606012110007</t>
   </si>
   <si>
     <t>0606012110040</t>
   </si>
   <si>
-    <t>0606012310013</t>
-  </si>
-  <si>
-    <t>0606012210008</t>
-  </si>
-  <si>
-    <t>0606012310102</t>
+    <t>0606012110034</t>
+  </si>
+  <si>
+    <t>0306012110003</t>
+  </si>
+  <si>
+    <t>0306012110014</t>
+  </si>
+  <si>
+    <t>0306012110002</t>
+  </si>
+  <si>
+    <t>0306012110001</t>
+  </si>
+  <si>
+    <t>0306012110030</t>
+  </si>
+  <si>
+    <t>0306012110016</t>
   </si>
   <si>
     <t>0306012110039</t>
   </si>
   <si>
-    <t>0306012110013</t>
-  </si>
-  <si>
     <t>0306012110023</t>
   </si>
   <si>
     <t>0306012210044</t>
   </si>
   <si>
-    <t>0306012110016</t>
-  </si>
-  <si>
     <t>0306012110004</t>
   </si>
   <si>
-    <t>0306012110001</t>
-  </si>
-  <si>
-    <t>0306012110003</t>
-  </si>
-  <si>
-    <t>0306012110002</t>
-  </si>
-  <si>
-    <t>0306012110014</t>
+    <t>0406022210048</t>
+  </si>
+  <si>
+    <t>0406022310040</t>
+  </si>
+  <si>
+    <t>0406022210029</t>
+  </si>
+  <si>
+    <t>0406022210005</t>
+  </si>
+  <si>
+    <t>0406022110057</t>
+  </si>
+  <si>
+    <t>0406022110034</t>
+  </si>
+  <si>
+    <t>0406022110085</t>
+  </si>
+  <si>
+    <t>0406022110039</t>
+  </si>
+  <si>
+    <t>0406022310068</t>
   </si>
   <si>
     <t>0406022110011</t>
   </si>
   <si>
-    <t>0406022310068</t>
-  </si>
-  <si>
-    <t>0406022310042</t>
-  </si>
-  <si>
-    <t>0406022210010</t>
-  </si>
-  <si>
-    <t>0406022110085</t>
-  </si>
-  <si>
-    <t>0406022210048</t>
-  </si>
-  <si>
-    <t>0406022310040</t>
-  </si>
-  <si>
-    <t>0406022210005</t>
-  </si>
-  <si>
-    <t>0406022210003</t>
-  </si>
-  <si>
-    <t>0406022110057</t>
-  </si>
-  <si>
-    <t>0406012210029</t>
-  </si>
-  <si>
     <t>0406012110007</t>
   </si>
   <si>
+    <t>0406012110025</t>
+  </si>
+  <si>
+    <t>0406012210031</t>
+  </si>
+  <si>
     <t>0406012110053</t>
   </si>
   <si>
@@ -457,49 +406,46 @@
     <t>0406012110026</t>
   </si>
   <si>
-    <t>0406012110023</t>
-  </si>
-  <si>
-    <t>0406012210031</t>
-  </si>
-  <si>
-    <t>0406012110025</t>
-  </si>
-  <si>
-    <t>0406012310028</t>
+    <t>0406012110004</t>
+  </si>
+  <si>
+    <t>0406012110058</t>
+  </si>
+  <si>
+    <t>0406012110011</t>
   </si>
   <si>
     <t>0406012110016</t>
   </si>
   <si>
-    <t>0206042110101</t>
+    <t>0206042110023</t>
+  </si>
+  <si>
+    <t>0206042310003</t>
   </si>
   <si>
     <t>0206042310041</t>
   </si>
   <si>
-    <t>0206042110023</t>
-  </si>
-  <si>
-    <t>0206042310003</t>
-  </si>
-  <si>
     <t>0206042110074</t>
   </si>
   <si>
+    <t>0206042310064</t>
+  </si>
+  <si>
+    <t>0206042110059</t>
+  </si>
+  <si>
     <t>0206042110073</t>
   </si>
   <si>
-    <t>0206042110059</t>
-  </si>
-  <si>
-    <t>0206042210012</t>
+    <t>0206042110008</t>
   </si>
   <si>
     <t>0206042110061</t>
   </si>
   <si>
-    <t>0206042110096</t>
+    <t>0206042110043</t>
   </si>
   <si>
     <t>Fabian Benediktus</t>
@@ -514,52 +460,76 @@
     <t>Thasya Hery Saputera</t>
   </si>
   <si>
+    <t>Adeline Hamidy Kushandojo</t>
+  </si>
+  <si>
     <t>Vianney Parameswara Ali</t>
   </si>
   <si>
-    <t>Adeline Hamidy Kushandojo</t>
-  </si>
-  <si>
-    <t>Karisma Natalia</t>
+    <t>Vania Caroline Hanjaya</t>
+  </si>
+  <si>
+    <t>Vanesa Jocelyn Irtanto</t>
   </si>
   <si>
     <t>Nicklaus Stanley</t>
   </si>
   <si>
-    <t>Vanesa Jocelyn Irtanto</t>
-  </si>
-  <si>
     <t>Kenley Maccauley Riyono</t>
   </si>
   <si>
+    <t>Helen Saphira Wibowo</t>
+  </si>
+  <si>
+    <t>Caitlyn Graciella</t>
+  </si>
+  <si>
+    <t>Isaura Minerva</t>
+  </si>
+  <si>
     <t>Jason Scott Lee</t>
   </si>
   <si>
+    <t>Geby Nathasha Tiffany Budianto</t>
+  </si>
+  <si>
     <t>Keisha Amabel Saputra Sutikno</t>
   </si>
   <si>
-    <t>Tarra Lief</t>
-  </si>
-  <si>
-    <t>Isaura Minerva</t>
-  </si>
-  <si>
-    <t>Paulus</t>
+    <t>Aiko</t>
   </si>
   <si>
     <t>Jocelyn Octavia Ongkowiyono</t>
   </si>
   <si>
-    <t>Caitlyn Graciella</t>
-  </si>
-  <si>
-    <t>Billy Jovian Irwanto</t>
-  </si>
-  <si>
     <t>Marsha Indrasakti</t>
   </si>
   <si>
-    <t>Helen Saphira Wibowo</t>
+    <t>Elizabeth Ferren Armelia</t>
+  </si>
+  <si>
+    <t>Sam Ryan Irawan</t>
+  </si>
+  <si>
+    <t>Thalia Nikky Siswono</t>
+  </si>
+  <si>
+    <t>Citta Catherine Gozali</t>
+  </si>
+  <si>
+    <t>Ivana Clairine Sistiawan</t>
+  </si>
+  <si>
+    <t>Mehta Juwita Resi Iklas Darmagati</t>
+  </si>
+  <si>
+    <t>Jessica Nathalia Hermawan</t>
+  </si>
+  <si>
+    <t>Nathania Angelica Santoso</t>
+  </si>
+  <si>
+    <t>Ida Ayu Indira Cempaka Sari</t>
   </si>
   <si>
     <t>Natasha Lidya Margaretha</t>
@@ -568,357 +538,285 @@
     <t>Fiorella Lauw</t>
   </si>
   <si>
-    <t>Ida Ayu Indira Cempaka Sari</t>
-  </si>
-  <si>
-    <t>Ivana Clairine Sistiawan</t>
-  </si>
-  <si>
-    <t>Sam Ryan Irawan</t>
-  </si>
-  <si>
-    <t>Thalia Nikky Siswono</t>
-  </si>
-  <si>
-    <t>Mehta Juwita Resi Iklas Darmagati</t>
-  </si>
-  <si>
-    <t>Citta Catherine Gozali</t>
-  </si>
-  <si>
-    <t>Jessica Nathalia Hermawan</t>
-  </si>
-  <si>
-    <t>Nathania Angelica Santoso</t>
+    <t>Caroline Devina Gunawan</t>
+  </si>
+  <si>
+    <t>Alvya Armelia</t>
+  </si>
+  <si>
+    <t>Whenny Halim</t>
+  </si>
+  <si>
+    <t>Veccyl Olivia Hartono</t>
+  </si>
+  <si>
+    <t>Gabriel Gizella</t>
+  </si>
+  <si>
+    <t>Muhammad Atho`illah</t>
+  </si>
+  <si>
+    <t>Niswiyah Syalehah</t>
+  </si>
+  <si>
+    <t>Seraphine Hartanto</t>
+  </si>
+  <si>
+    <t>Eufemia Davrili</t>
   </si>
   <si>
     <t>Talia Nathanael</t>
   </si>
   <si>
-    <t>Caroline Devina Gunawan</t>
-  </si>
-  <si>
-    <t>Whenny Halim</t>
-  </si>
-  <si>
-    <t>Cheryl Angeline Azalia Santofe</t>
-  </si>
-  <si>
-    <t>Gabriel Gizella</t>
-  </si>
-  <si>
-    <t>Alvya Armelia</t>
-  </si>
-  <si>
-    <t>Seraphine Hartanto</t>
-  </si>
-  <si>
-    <t>Aurelia Theodora Tanoto</t>
-  </si>
-  <si>
-    <t>Muhammad Atho`illah</t>
-  </si>
-  <si>
-    <t>Veccyl Olivia Hartono</t>
+    <t>Mellisa Erika Saleh</t>
+  </si>
+  <si>
+    <t>Ellen Angelica Arijono</t>
+  </si>
+  <si>
+    <t>Levani Delsie Putri Pangalila</t>
+  </si>
+  <si>
+    <t>Hans Rachman</t>
+  </si>
+  <si>
+    <t>Stefanie Hendra Olivia</t>
   </si>
   <si>
     <t>Raymond Hamidy</t>
   </si>
   <si>
-    <t>Ellen Angelica Arijono</t>
-  </si>
-  <si>
-    <t>Kezia Jasmine Winata</t>
+    <t>Jaclyn Regina Anggara</t>
+  </si>
+  <si>
+    <t>Belinda Manuela Angkadjaja</t>
+  </si>
+  <si>
+    <t>Bima Nugroho Putra Sutanto</t>
   </si>
   <si>
     <t>Hillary Ellen Yapradinata</t>
   </si>
   <si>
-    <t>Levani Delsie Putri Pangalila</t>
-  </si>
-  <si>
-    <t>Hans Rachman</t>
-  </si>
-  <si>
-    <t>Belinda Manuela Angkadjaja</t>
-  </si>
-  <si>
-    <t>Jaclyn Regina Anggara</t>
-  </si>
-  <si>
-    <t>Bima Nugroho Putra Sutanto</t>
-  </si>
-  <si>
-    <t>Mellisa Erika Saleh</t>
+    <t>Marcell Jeremy Wiradinata</t>
+  </si>
+  <si>
+    <t>Ileene Trinia Santoso</t>
+  </si>
+  <si>
+    <t>Michelle Alvera Lolang</t>
+  </si>
+  <si>
+    <t>Alexander Hartono</t>
+  </si>
+  <si>
+    <t>Bryan Anthony</t>
+  </si>
+  <si>
+    <t>Vebrillia Santoso</t>
   </si>
   <si>
     <t>Kevin Christian</t>
   </si>
   <si>
-    <t>Ileene Trinia Santoso</t>
+    <t>Davina Teresa Wijaya</t>
   </si>
   <si>
     <t>Micheila Jiemesha</t>
   </si>
   <si>
-    <t>Marcell Jeremy Wiradinata</t>
-  </si>
-  <si>
-    <t>Davina Teresa Wijaya</t>
-  </si>
-  <si>
-    <t>Vebrillia Santoso</t>
-  </si>
-  <si>
     <t>Yobel Nathaniel Filipus</t>
   </si>
   <si>
-    <t>Michelle Alvera Lolang</t>
-  </si>
-  <si>
-    <t>Marsha Alexis Likorawung</t>
-  </si>
-  <si>
-    <t>Evelyn Callista Yaurentius</t>
+    <t>Benedictus Mario</t>
+  </si>
+  <si>
+    <t>Vanessa Christie</t>
+  </si>
+  <si>
+    <t>Catherine Lim</t>
+  </si>
+  <si>
+    <t>Angellie Ennovaryn Mertadana</t>
   </si>
   <si>
     <t>Vincentia Jennifer Evelyn Tjioe</t>
   </si>
   <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Aqilla Shahbani Mahazoya</t>
+  </si>
+  <si>
     <t>Kezia Elice Yulianto</t>
   </si>
   <si>
-    <t>Aqilla Shahbani Mahazoya</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Catherine Lim</t>
-  </si>
-  <si>
-    <t>Benedictus Mario</t>
-  </si>
-  <si>
-    <t>Vanessa Christie</t>
-  </si>
-  <si>
-    <t>Angellie Ennovaryn Mertadana</t>
-  </si>
-  <si>
-    <t>Marvel Hans Surjana</t>
-  </si>
-  <si>
     <t>Theo Filus Handy Syahputra</t>
   </si>
   <si>
-    <t>Suryadi Kusniawan</t>
-  </si>
-  <si>
-    <t>Rif`atus Sholihah</t>
-  </si>
-  <si>
-    <t>Widya Arif Sofyan Kurniawan</t>
-  </si>
-  <si>
-    <t>Nadia Alesiana Putri</t>
-  </si>
-  <si>
-    <t>Karina Enny Agustina</t>
-  </si>
-  <si>
-    <t>Ika Ila Nurhuddah</t>
-  </si>
-  <si>
-    <t>Cicilia Dewi</t>
-  </si>
-  <si>
-    <t>Erick Tjendriawan</t>
-  </si>
-  <si>
-    <t>Verawaty Budiyanto</t>
-  </si>
-  <si>
-    <t>Elizabeth Gina Mitayanny Salim</t>
-  </si>
-  <si>
-    <t>Calvin Timothy Lieanto</t>
+    <t>Immanuel Nissi Krissianto</t>
+  </si>
+  <si>
+    <t>Adara Mishel Harjanto</t>
+  </si>
+  <si>
+    <t>Cherry Josephine</t>
+  </si>
+  <si>
+    <t>Parthasarathi Shrinithy</t>
+  </si>
+  <si>
+    <t>Clara Angelia Gunawan</t>
+  </si>
+  <si>
+    <t>Isadora Elgina Pramana</t>
+  </si>
+  <si>
+    <t>Alvaro Jason Gunawan</t>
+  </si>
+  <si>
+    <t>Lindsey Brittany Phandy</t>
+  </si>
+  <si>
+    <t>Felicia Cheryl Lay</t>
+  </si>
+  <si>
+    <t>Teresa Samantha Satyanegara</t>
+  </si>
+  <si>
+    <t>Jennifer Vincentia</t>
+  </si>
+  <si>
+    <t>Brian Timothy Santoso</t>
+  </si>
+  <si>
+    <t>Neola Omar Avizenna</t>
   </si>
   <si>
     <t>Valentino Limbang Jaya</t>
   </si>
   <si>
-    <t>Annabella Claudia Kurniadi</t>
-  </si>
-  <si>
-    <t>Juan Richard Alexander Setiawan</t>
-  </si>
-  <si>
-    <t>Elizabeth Maeko Cyrilla Handijaya</t>
-  </si>
-  <si>
-    <t>Yosef Evandro Ernantyo</t>
-  </si>
-  <si>
-    <t>Linda Laurensia Soetandio</t>
-  </si>
-  <si>
-    <t>Vincent Nathanael</t>
-  </si>
-  <si>
-    <t>Teresa Samantha Satyanegara</t>
-  </si>
-  <si>
-    <t>Alvaro Jason Gunawan</t>
-  </si>
-  <si>
-    <t>Isadora Elgina Pramana</t>
-  </si>
-  <si>
-    <t>Lindsey Brittany Phandy</t>
-  </si>
-  <si>
-    <t>Clara Angelia Gunawan</t>
-  </si>
-  <si>
-    <t>Parthasarathi Shrinithy</t>
-  </si>
-  <si>
-    <t>Felicia Cheryl Lay</t>
-  </si>
-  <si>
-    <t>Cherry Josephine</t>
-  </si>
-  <si>
-    <t>Jennifer Vincentia</t>
-  </si>
-  <si>
-    <t>Brian Timothy Santoso</t>
-  </si>
-  <si>
-    <t>Neola Omar Avizenna</t>
-  </si>
-  <si>
     <t>Ferdinand Edbert</t>
   </si>
   <si>
+    <t>Evelin Sutrisno</t>
+  </si>
+  <si>
+    <t>Darryl Abraham Laijran</t>
+  </si>
+  <si>
     <t>Jessica Halim</t>
   </si>
   <si>
-    <t>Evelin Sutrisno</t>
-  </si>
-  <si>
     <t>Steven Adi Santoso</t>
   </si>
   <si>
-    <t>Ni Wayan Ardini Pujiastuti Ronthi</t>
-  </si>
-  <si>
-    <t>Calvin Chandoko</t>
-  </si>
-  <si>
-    <t>Febiola</t>
-  </si>
-  <si>
-    <t>Ivan Suaidi</t>
-  </si>
-  <si>
-    <t>Vincy Falencia</t>
+    <t>Albert Esli</t>
+  </si>
+  <si>
+    <t>Fauzan Abian</t>
+  </si>
+  <si>
+    <t>Jonsen Subagio</t>
+  </si>
+  <si>
+    <t>Celine Natalie Johnson</t>
+  </si>
+  <si>
+    <t>Hendrik Hanok Lenggu</t>
   </si>
   <si>
     <t>Vajra Yeshie Kusala</t>
   </si>
   <si>
-    <t>Hendrik Hanok Lenggu</t>
-  </si>
-  <si>
     <t>Rivo Christian Kutanggas</t>
   </si>
   <si>
-    <t>Nisyavira Anam Meilia</t>
-  </si>
-  <si>
-    <t>Jonsen Subagio</t>
+    <t>Salwadinda Lintang Tazkiyah</t>
+  </si>
+  <si>
+    <t>Hilda Lutvia Hanifa</t>
+  </si>
+  <si>
+    <t>Monica Jennifer Gunawan</t>
   </si>
   <si>
     <t>Kenza Kalihanugrah Akbar</t>
   </si>
   <si>
-    <t>Hisyam Darius Haffian Amadeo</t>
-  </si>
-  <si>
-    <t>Ni Luh Komang Dea Pradnya Paramitha</t>
-  </si>
-  <si>
-    <t>Celine Natalie Johnson</t>
+    <t>Ony Intan Tsalsa Cahyaning Endik</t>
+  </si>
+  <si>
+    <t>Kezia Kevina Harmoko</t>
+  </si>
+  <si>
+    <t>Amadea Regine Tan</t>
+  </si>
+  <si>
+    <t>Richelleen Widjaja</t>
+  </si>
+  <si>
+    <t>Felicia Angie Hosea</t>
+  </si>
+  <si>
+    <t>Hana Octavia Arianto</t>
+  </si>
+  <si>
+    <t>Belicia griselda talahaturusun</t>
   </si>
   <si>
     <t>Sabrina Marchella</t>
   </si>
   <si>
-    <t>Chairein Christy Limantara</t>
-  </si>
-  <si>
     <t>Nathania Amabel Sangjaya</t>
   </si>
   <si>
     <t>Candra Giga Kharisma</t>
   </si>
   <si>
-    <t>Belicia griselda talahaturusun</t>
-  </si>
-  <si>
     <t>Josephine Aurel Carissa</t>
   </si>
   <si>
-    <t>Felicia Angie Hosea</t>
-  </si>
-  <si>
-    <t>Kezia Kevina Harmoko</t>
-  </si>
-  <si>
-    <t>Richelleen Widjaja</t>
-  </si>
-  <si>
-    <t>Amadea Regine Tan</t>
+    <t>Catherine Lorena Valentina Franoto</t>
+  </si>
+  <si>
+    <t>Vivian Villareal</t>
+  </si>
+  <si>
+    <t>Sherryn Sheronna</t>
+  </si>
+  <si>
+    <t>Caecillia Hartatdji</t>
+  </si>
+  <si>
+    <t>Aurelia Devina Sanjaya</t>
+  </si>
+  <si>
+    <t>Theodora Kezia Sudibyo</t>
+  </si>
+  <si>
+    <t>Jessica Piter</t>
+  </si>
+  <si>
+    <t>Jessica Julia Purnomo</t>
+  </si>
+  <si>
+    <t>Rania Zahra Iasha</t>
   </si>
   <si>
     <t>Stefanie Adamas Samjaya</t>
   </si>
   <si>
-    <t>Rania Zahra Iasha</t>
-  </si>
-  <si>
-    <t>Jacqueline Grant Lieman</t>
-  </si>
-  <si>
-    <t>Ni Putu Febriana Eka Suputri</t>
-  </si>
-  <si>
-    <t>Jessica Piter</t>
-  </si>
-  <si>
-    <t>Catherine Lorena Valentina Franoto</t>
-  </si>
-  <si>
-    <t>Vivian Villareal</t>
-  </si>
-  <si>
-    <t>Caecillia Hartatdji</t>
-  </si>
-  <si>
-    <t>Feliciana Octavia Sulimto</t>
-  </si>
-  <si>
-    <t>Aurelia Devina Sanjaya</t>
-  </si>
-  <si>
-    <t>Magentama Sineksenjati Wiryawan</t>
-  </si>
-  <si>
     <t>Bernadet Ekaristi Wibowo</t>
   </si>
   <si>
+    <t>Erica Destiani Natalia</t>
+  </si>
+  <si>
+    <t>Emma Suwono</t>
+  </si>
+  <si>
     <t>Fernando Arron Susilo</t>
   </si>
   <si>
@@ -928,49 +826,46 @@
     <t>Jocelyn Vanessa Meidy Winarto</t>
   </si>
   <si>
-    <t>Alois Anthony Adhypranata</t>
-  </si>
-  <si>
-    <t>Emma Suwono</t>
-  </si>
-  <si>
-    <t>Erica Destiani Natalia</t>
-  </si>
-  <si>
-    <t>Zerlina Farica Zaneta Baringbing</t>
+    <t>Gabriella Josephine Lewi</t>
+  </si>
+  <si>
+    <t>Annette Gabriella</t>
+  </si>
+  <si>
+    <t>Kathleen Michelle</t>
   </si>
   <si>
     <t>Elizabeth Florenza Heryanto</t>
   </si>
   <si>
-    <t>Stephanie Handoyo</t>
+    <t>Gabriella Faustine Olliem</t>
+  </si>
+  <si>
+    <t>Michelle Nathania Edeline</t>
   </si>
   <si>
     <t>Janice Gracia Jedidiah Idayat</t>
   </si>
   <si>
-    <t>Gabriella Faustine Olliem</t>
-  </si>
-  <si>
-    <t>Michelle Nathania Edeline</t>
-  </si>
-  <si>
     <t>Clarissa Casimira</t>
   </si>
   <si>
+    <t>Nazneen Olexa</t>
+  </si>
+  <si>
+    <t>Victoria Audrey Sudarta</t>
+  </si>
+  <si>
     <t>Marselinus Michael Dendy Lesmono</t>
   </si>
   <si>
-    <t>Victoria Audrey Sudarta</t>
-  </si>
-  <si>
-    <t>Howard Richardson Gohvint</t>
+    <t>Kurnia Tasnima Sari</t>
   </si>
   <si>
     <t>Clara Beata Simamora</t>
   </si>
   <si>
-    <t>Michelle Stevanya Vyncencia</t>
+    <t>Jordan Owen Riconga Pujinata</t>
   </si>
   <si>
     <t>Accounting</t>
@@ -994,19 +889,10 @@
     <t>Information System</t>
   </si>
   <si>
-    <t>Magister of Management</t>
-  </si>
-  <si>
-    <t>Magister of Management (BUF)</t>
-  </si>
-  <si>
     <t>Management - International Class</t>
   </si>
   <si>
     <t>Management - Reguler Class</t>
-  </si>
-  <si>
-    <t>Management S3</t>
   </si>
   <si>
     <t>Medical</t>
@@ -1379,7 +1265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1404,13 +1290,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="D2">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1418,13 +1304,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="D3">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1432,10 +1318,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="D4">
         <v>115</v>
@@ -1446,10 +1332,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="D5">
         <v>110</v>
@@ -1460,13 +1346,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1474,10 +1360,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1488,13 +1374,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="D8">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1502,13 +1388,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="D9">
-        <v>275</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1516,13 +1402,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1530,10 +1416,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="D11">
         <v>280</v>
@@ -1544,13 +1430,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="D12">
-        <v>45</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1558,13 +1444,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="D13">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1572,13 +1458,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1586,13 +1472,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1600,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="D16">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1614,13 +1500,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1628,13 +1514,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="D18">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1642,13 +1528,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="D19">
-        <v>45</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1656,13 +1542,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C20" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="D20">
-        <v>180</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1670,13 +1556,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C21" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="D21">
-        <v>130</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1684,13 +1570,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="D22">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1698,13 +1584,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="D23">
-        <v>98</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1712,13 +1598,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="D24">
-        <v>98</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1726,13 +1612,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="D25">
-        <v>109</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1740,13 +1626,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C26" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="D26">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1754,13 +1640,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="D27">
-        <v>123</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1768,13 +1654,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="D28">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1782,13 +1668,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="D29">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1796,13 +1682,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="D30">
-        <v>151</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1810,13 +1696,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C31" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="D31">
-        <v>98</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1824,13 +1710,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C32" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="D32">
-        <v>155</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1838,13 +1724,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="D33">
-        <v>105</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1852,13 +1738,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="D34">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1866,13 +1752,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C35" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1880,13 +1766,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="D36">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1894,13 +1780,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="D37">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1908,13 +1794,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C38" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1922,13 +1808,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C39" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1936,13 +1822,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C40" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1950,13 +1836,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C41" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="D41">
-        <v>58</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1964,13 +1850,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C42" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="D42">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1978,13 +1864,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C43" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="D43">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1992,13 +1878,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C44" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2006,13 +1892,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C45" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2020,13 +1906,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C46" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="D46">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2034,13 +1920,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C47" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2048,13 +1934,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C48" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2062,13 +1948,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C49" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="D49">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2076,10 +1962,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C50" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="D50">
         <v>105</v>
@@ -2090,13 +1976,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C51" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="D51">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2104,13 +1990,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C52" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="D52">
-        <v>48</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2118,13 +2004,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C53" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="D53">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2132,13 +2018,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C54" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="D54">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2146,13 +2032,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C55" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="D55">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2160,13 +2046,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C56" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="D56">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2174,13 +2060,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C57" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="D57">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2188,13 +2074,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C58" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="D58">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2202,13 +2088,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C59" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="D59">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2216,13 +2102,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C60" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="D60">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2230,13 +2116,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C61" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="D61">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2244,13 +2130,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C62" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="D62">
-        <v>141</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2258,13 +2144,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C63" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="D63">
-        <v>141</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2272,13 +2158,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C64" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="D64">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2286,13 +2172,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C65" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="D65">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2300,13 +2186,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C66" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="D66">
-        <v>81</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2314,13 +2200,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C67" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="D67">
-        <v>75</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2328,13 +2214,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C68" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="D68">
-        <v>65</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2342,13 +2228,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="C69" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="D69">
-        <v>60</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2356,13 +2242,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C70" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="D70">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2370,13 +2256,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C71" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="D71">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2384,13 +2270,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C72" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="D72">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2398,13 +2284,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C73" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="D73">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2412,13 +2298,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C74" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="D74">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2426,13 +2312,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C75" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="D75">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2440,13 +2326,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C76" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="D76">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2454,10 +2340,10 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C77" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="D77">
         <v>60</v>
@@ -2468,13 +2354,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C78" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="D78">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2482,13 +2368,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C79" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="D79">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2496,13 +2382,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C80" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="D80">
-        <v>65</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2510,13 +2396,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C81" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="D81">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2524,13 +2410,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C82" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="D82">
-        <v>25</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2538,13 +2424,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C83" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="D83">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2552,13 +2438,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C84" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="D84">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2566,13 +2452,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C85" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="D85">
-        <v>40</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2580,13 +2466,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C86" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="D86">
-        <v>50</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2594,13 +2480,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C87" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="D87">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2608,13 +2494,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C88" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="D88">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2622,13 +2508,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C89" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="D89">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2636,13 +2522,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C90" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="D90">
-        <v>185</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2650,13 +2536,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C91" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="D91">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2664,13 +2550,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C92" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="D92">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2678,13 +2564,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C93" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="D93">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2692,13 +2578,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C94" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="D94">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2706,13 +2592,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C95" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="D95">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2720,13 +2606,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C96" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="D96">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2734,13 +2620,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C97" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="D97">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2748,13 +2634,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C98" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="D98">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2762,13 +2648,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C99" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="D99">
-        <v>165</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2776,13 +2662,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C100" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="D100">
-        <v>118</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2790,13 +2676,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C101" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="D101">
-        <v>113</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2804,13 +2690,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C102" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="D102">
-        <v>103</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2818,13 +2704,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C103" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="D103">
-        <v>100</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2832,13 +2718,13 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C104" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="D104">
-        <v>95</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2846,13 +2732,13 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C105" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="D105">
-        <v>93</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2860,13 +2746,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C106" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="D106">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2874,13 +2760,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C107" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="D107">
-        <v>90</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2888,13 +2774,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C108" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="D108">
-        <v>85</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2902,13 +2788,13 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C109" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="D109">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2916,13 +2802,13 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C110" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="D110">
-        <v>25</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2930,13 +2816,13 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C111" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="D111">
-        <v>73</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2944,13 +2830,13 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C112" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="D112">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2958,13 +2844,13 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C113" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="D113">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2972,13 +2858,13 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C114" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="D114">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2986,13 +2872,13 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C115" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="D115">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3000,13 +2886,13 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C116" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="D116">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3014,13 +2900,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="C117" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="D117">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3028,13 +2914,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C118" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="D118">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3042,13 +2928,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C119" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="D119">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3056,13 +2942,13 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C120" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="D120">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3070,13 +2956,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C121" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="D121">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3084,13 +2970,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C122" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="D122">
-        <v>110</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3098,13 +2984,13 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="C123" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="D123">
-        <v>127</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3112,13 +2998,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C124" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="D124">
-        <v>136</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3126,13 +3012,13 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C125" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="D125">
-        <v>145</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3140,13 +3026,13 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C126" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="D126">
-        <v>150</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3154,13 +3040,13 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C127" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="D127">
-        <v>180</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3168,13 +3054,13 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C128" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="D128">
-        <v>230</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3182,13 +3068,13 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C129" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="D129">
-        <v>255</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3196,13 +3082,13 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C130" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="D130">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3210,13 +3096,13 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C131" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="D131">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3224,13 +3110,13 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C132" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="D132">
-        <v>25</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3238,13 +3124,13 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="C133" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="D133">
-        <v>25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3252,13 +3138,13 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="C134" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="D134">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3266,13 +3152,13 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C135" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="D135">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3280,13 +3166,13 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C136" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="D136">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3294,13 +3180,13 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C137" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="D137">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3308,13 +3194,13 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
+        <v>280</v>
+      </c>
+      <c r="C138" t="s">
         <v>297</v>
       </c>
-      <c r="C138" t="s">
-        <v>333</v>
-      </c>
       <c r="D138">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3322,13 +3208,13 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C139" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="D139">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3336,13 +3222,13 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C140" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="D140">
-        <v>26</v>
+        <v>211</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3350,265 +3236,13 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C141" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="D141">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
-        <v>144</v>
-      </c>
-      <c r="B142" t="s">
-        <v>301</v>
-      </c>
-      <c r="C142" t="s">
-        <v>334</v>
-      </c>
-      <c r="D142">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
-        <v>145</v>
-      </c>
-      <c r="B143" t="s">
-        <v>302</v>
-      </c>
-      <c r="C143" t="s">
-        <v>334</v>
-      </c>
-      <c r="D143">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>146</v>
-      </c>
-      <c r="B144" t="s">
-        <v>303</v>
-      </c>
-      <c r="C144" t="s">
-        <v>334</v>
-      </c>
-      <c r="D144">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
-        <v>147</v>
-      </c>
-      <c r="B145" t="s">
-        <v>304</v>
-      </c>
-      <c r="C145" t="s">
-        <v>334</v>
-      </c>
-      <c r="D145">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
-        <v>148</v>
-      </c>
-      <c r="B146" t="s">
-        <v>305</v>
-      </c>
-      <c r="C146" t="s">
-        <v>334</v>
-      </c>
-      <c r="D146">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
-        <v>149</v>
-      </c>
-      <c r="B147" t="s">
-        <v>306</v>
-      </c>
-      <c r="C147" t="s">
-        <v>334</v>
-      </c>
-      <c r="D147">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>150</v>
-      </c>
-      <c r="B148" t="s">
-        <v>307</v>
-      </c>
-      <c r="C148" t="s">
-        <v>334</v>
-      </c>
-      <c r="D148">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>151</v>
-      </c>
-      <c r="B149" t="s">
-        <v>308</v>
-      </c>
-      <c r="C149" t="s">
-        <v>334</v>
-      </c>
-      <c r="D149">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>152</v>
-      </c>
-      <c r="B150" t="s">
-        <v>309</v>
-      </c>
-      <c r="C150" t="s">
-        <v>335</v>
-      </c>
-      <c r="D150">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>153</v>
-      </c>
-      <c r="B151" t="s">
-        <v>310</v>
-      </c>
-      <c r="C151" t="s">
-        <v>335</v>
-      </c>
-      <c r="D151">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>154</v>
-      </c>
-      <c r="B152" t="s">
-        <v>311</v>
-      </c>
-      <c r="C152" t="s">
-        <v>335</v>
-      </c>
-      <c r="D152">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>155</v>
-      </c>
-      <c r="B153" t="s">
-        <v>312</v>
-      </c>
-      <c r="C153" t="s">
-        <v>335</v>
-      </c>
-      <c r="D153">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>156</v>
-      </c>
-      <c r="B154" t="s">
-        <v>313</v>
-      </c>
-      <c r="C154" t="s">
-        <v>335</v>
-      </c>
-      <c r="D154">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>157</v>
-      </c>
-      <c r="B155" t="s">
-        <v>314</v>
-      </c>
-      <c r="C155" t="s">
-        <v>335</v>
-      </c>
-      <c r="D155">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>158</v>
-      </c>
-      <c r="B156" t="s">
-        <v>315</v>
-      </c>
-      <c r="C156" t="s">
-        <v>335</v>
-      </c>
-      <c r="D156">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
-        <v>159</v>
-      </c>
-      <c r="B157" t="s">
-        <v>316</v>
-      </c>
-      <c r="C157" t="s">
-        <v>335</v>
-      </c>
-      <c r="D157">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>160</v>
-      </c>
-      <c r="B158" t="s">
-        <v>317</v>
-      </c>
-      <c r="C158" t="s">
-        <v>335</v>
-      </c>
-      <c r="D158">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
-        <v>161</v>
-      </c>
-      <c r="B159" t="s">
-        <v>318</v>
-      </c>
-      <c r="C159" t="s">
-        <v>335</v>
-      </c>
-      <c r="D159">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
